--- a/biology/Zoologie/Euphydryas_cynthia/Euphydryas_cynthia.xlsx
+++ b/biology/Zoologie/Euphydryas_cynthia/Euphydryas_cynthia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Damier de l'alchémille ou Damier des alpages (Euphydryas cynthia) 
 espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Nymphalinae, de la tribu des Melitaeini, et du genre Euphydryas.
@@ -512,23 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Euphydryas cynthia a été décrite par les entomologistes allemands Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller, en 1775, sous le nom initial de Papilio cynthia[1].
-Synonymes
-Papilio cynthia Schiffermüller, 1775 Protonyme
-Papilio mysia (Hübner, 1800),
-Hypodryas cynthia (Higgins, 1981),
-Melitaea cynthia leonhardi  Fruhstorfer, 1917[2],[3],[4].
-Melitaea alpicola (Galvagni, 1918)
-Hypodryas cynthia  Higgins, 1981[5].
-Noms vernaculaires
-Le Damier de l'alchémille, Damier des alpages, Mélitée alpestre ou Damier dimorphe en français
-En anglais Cynthia's Fritillary et en allemand Veilchen-Scheckenfalter.
-Taxinomie
-Sous-espèces
-Euphydryas cynthia alpicola (Galvagni) présente au-dessus de 1 800 mètres une suffusion noire au recto.
-Euphydryas cynthia drenovskii (Röber) en Bulgarie dans les monts Pirin.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Euphydryas cynthia a été décrite par les entomologistes allemands Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller, en 1775, sous le nom initial de Papilio cynthia.
+</t>
         </is>
       </c>
     </row>
@@ -553,15 +554,168 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio cynthia Schiffermüller, 1775 Protonyme
+Papilio mysia (Hübner, 1800),
+Hypodryas cynthia (Higgins, 1981),
+Melitaea cynthia leonhardi  Fruhstorfer, 1917.
+Melitaea alpicola (Galvagni, 1918)
+Hypodryas cynthia  Higgins, 1981.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Damier de l'alchémille, Damier des alpages, Mélitée alpestre ou Damier dimorphe en français
+En anglais Cynthia's Fritillary et en allemand Veilchen-Scheckenfalter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sous-espèces
+Euphydryas cynthia alpicola (Galvagni) présente au-dessus de 1 800 mètres une suffusion noire au recto.
+Euphydryas cynthia drenovskii (Röber) en Bulgarie dans les monts Pirin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon à damiers orange et marron séparés par les nervures et organisés en lignes qui présente un dimorphisme sexuel : le mâle présente dans les aires basale et discale des damiers blancs alors que la femelle est toute à damiers orange.
 Le revers est orange orné de damiers clairs, aux antérieures et aux postérieures chez le mâle, uniquement aux postérieures chez la femelle dont les antérieures sont à damiers plus ou moins foncés. Au recto comme au verso les damiers orange de la bande postdiscale sont centrés par un point noir.
-Sous-espèce
-La forme Euphydryas cynthia alpicola petite, présente une suffusion noire au recto, les formes Euphydryas cynthia drenovskii et Euphydryas cynthia leonardi, plus grandes sont plus colorées[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme Euphydryas cynthia alpicola petite, présente une suffusion noire au recto, les formes Euphydryas cynthia drenovskii et Euphydryas cynthia leonardi, plus grandes sont plus colorées.
 			Face dorsale du mâle MHNT
 			△ Revers du mâle
 			Face dorsale de la femelle MHNT
@@ -575,103 +729,185 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euphydryas_cynthia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne à l'état de chenille. Le développement demande deux saisons.
-Il vole en une seule génération de fin juin à début août[6].
-Plantes hôtes
-Les plantes hôtes de la chenille sont Plantago alpina et Viola calcarata[6].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de chenille. Le développement demande deux saisons.
+Il vole en une seule génération de fin juin à début août.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Euphydryas_cynthia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont Plantago alpina et Viola calcarata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans les Alpes en France, Suisse, Italie, Autriche et en Bulgarie[3],[6].
-En France métropolitaine il est présent dans les départements des Alpes-Maritimes et des Alpes-de-Haute-Provence[7],[8]. Suivant d'autres sources il serait aussi présent en Savoie, Haute-Savoie, Isère, Drôme et Hautes-Alpes[8].
-Biotope
-Il affectionne les prairies alpines de 400 à 2 300 mètres.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans les Alpes en France, Suisse, Italie, Autriche et en Bulgarie,.
+En France métropolitaine il est présent dans les départements des Alpes-Maritimes et des Alpes-de-Haute-Provence,. Suivant d'autres sources il serait aussi présent en Savoie, Haute-Savoie, Isère, Drôme et Hautes-Alpes.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Euphydryas_cynthia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les prairies alpines de 400 à 2 300 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_cynthia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Le Damier de l'alchémille et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-Pas de statut de protection particulier en France mais inscrit dans le red data book en Bulgarie comme vulnérable[9].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier en France mais inscrit dans le red data book en Bulgarie comme vulnérable.
 </t>
         </is>
       </c>
